--- a/biology/Botanique/Armoise_aurone/Armoise_aurone.xlsx
+++ b/biology/Botanique/Armoise_aurone/Armoise_aurone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’aurone ou citronnelle (Artemisia abrotanum L.) est une espèce de plantes herbacées vivaces de la famille des Astéracées, cultivée comme plante condimentaire et ornementale.
 Noms communs : aurone, citronnelle, aurone mâle, abrotone, citronnelle garde-robe, arquebuse. En allemand : Eberraute, en anglais : slovenwood, southern wormwood, en espagnol : abrótano macho.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-arbrisseau à tiges herbacées à section carrée, vivace, à feuilles semi-persistantes et à port dressé qui peut atteindre 1 à 1,3 m de haut.
 Les feuilles, alternes, caduques, de 5 cm de long, sont fines, très divisées en lanières, de couleur vert bleuté, velues dessous, glabres dessus et contiennent une huile essentielle (thuyone, absintol), des dérivés coumariniques (isofraxidine, ombelliférone, scopolétol), un alcaloïde (abrotine, semblable dans ses effets à la quinine), des tanins.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire du bassin méditerranéen, peut-être de Turquie. Elle est largement cultivée et naturalisée dans les régions tempérées.
 </t>
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Préfère un sol frais, bien drainé. Multiplication par division de touffes au printemps, ou éventuellement par bouturage.
 À chaque printemps, il convient de rabattre les touffes pour provoquer la repousse des feuilles.
@@ -609,7 +627,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles fraîches, au goût citronné, peuvent servir à aromatiser les salades, les viandes grasses, le vinaigre, les sauces, les gâteaux ou encore pour apprêter des viandes rôties – comme le bœuf ou le porc – et des poissons, notamment l’anguille.
 Connue pour être vermifuge, on la prenait en infusion pour expulser le ver solitaire. Jadis, on l’utilisait aussi comme insecticide et on en faisait de petits bouquets séchés qui repoussaient les insectes, pucerons et mites.
